--- a/teste poucos pedidos.xlsx
+++ b/teste poucos pedidos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abimael Mendes\Documents\cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D94655-2D3B-4039-8DBE-8DFD82917CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A660DDF-6846-462A-9D34-614CACFBB7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pedidos!$A$1:$AA$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>ID DA LOJA</t>
   </si>
@@ -111,12 +111,6 @@
     <t>MOTIVO OCORRÊNCIAS</t>
   </si>
   <si>
-    <t>72618</t>
-  </si>
-  <si>
-    <t>Crunchy Pizza Express</t>
-  </si>
-  <si>
     <t>Cancelamento de pedido</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>Entrega Facil - 7463 - 06/02/2023Entrega Fácil - Crédito de incentivo multipedidos</t>
   </si>
   <si>
-    <t>321544</t>
-  </si>
-  <si>
-    <t>Olga Ri - Vila Olímpia</t>
-  </si>
-  <si>
     <t>76e0a8e1-ab18-46cc-ac8d-68f08eca9baf</t>
   </si>
   <si>
@@ -310,6 +298,9 @@
   </si>
   <si>
     <t>Pedido:: Entrega Facil - 5071 - 03/02/2023 Entrega Fácil - Débito de frete para pedido cancelado</t>
+  </si>
+  <si>
+    <t>Anônimo</t>
   </si>
 </sst>
 </file>
@@ -331,6 +322,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -703,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="A10:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,35 +813,35 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>654321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="8">
         <v>69.900000000000006</v>
@@ -895,35 +887,35 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>654321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
       <c r="K3" s="8">
         <v>64.900000000000006</v>
@@ -969,35 +961,35 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>654321</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="1">
         <v>49.9</v>
@@ -1040,35 +1032,35 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
+      <c r="A5">
+        <v>654321</v>
       </c>
       <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
       </c>
       <c r="K5" s="8">
         <v>62.9</v>
@@ -1114,35 +1106,35 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
+      <c r="A6">
+        <v>654321</v>
       </c>
       <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
       </c>
       <c r="K6" s="8">
         <v>74.900000000000006</v>
@@ -1188,35 +1180,35 @@
       </c>
     </row>
     <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
+      <c r="A7">
+        <v>654321</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" s="8">
         <v>89.9</v>
@@ -1265,21 +1257,21 @@
       <c r="AA7"/>
     </row>
     <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
+      <c r="A8">
+        <v>654321</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -1304,25 +1296,25 @@
         <v>41.77</v>
       </c>
       <c r="AA8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
+      <c r="A9">
+        <v>654321</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -1347,39 +1339,39 @@
         <v>53.71</v>
       </c>
       <c r="AA9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>654321</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="8">
         <v>49.9</v>
@@ -1428,21 +1420,21 @@
       <c r="AA10"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="A11">
+        <v>654321</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1467,25 +1459,25 @@
         <v>5</v>
       </c>
       <c r="AA11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
+      <c r="A12">
+        <v>654321</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1510,25 +1502,25 @@
         <v>5</v>
       </c>
       <c r="AA12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
+      <c r="A13">
+        <v>654321</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -1553,278 +1545,277 @@
         <v>5</v>
       </c>
       <c r="AA13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>654321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1"/>
       <c r="Z14" s="1">
         <v>-15.99</v>
       </c>
       <c r="AA14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>74</v>
+      <c r="A15">
+        <v>654321</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1"/>
       <c r="Z15" s="1">
         <v>-9.99</v>
       </c>
       <c r="AA15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>74</v>
+      <c r="A16">
+        <v>654321</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1"/>
       <c r="Z16" s="1">
         <v>-9.99</v>
       </c>
       <c r="AA16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>74</v>
+      <c r="A17">
+        <v>654321</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1"/>
       <c r="Z17" s="1">
         <v>-13.99</v>
       </c>
       <c r="AA17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>74</v>
+      <c r="A18">
+        <v>654321</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1"/>
       <c r="Z18" s="1">
         <v>-21.99</v>
       </c>
       <c r="AA18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
+      <c r="A19">
+        <v>654321</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1"/>
       <c r="Z19" s="1">
         <v>-11.99</v>
       </c>
       <c r="AA19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
+      <c r="A20">
+        <v>654321</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1"/>
       <c r="Z20" s="1">
         <v>-9.99</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
+      <c r="A21">
+        <v>654321</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K21" s="1"/>
       <c r="Z21" s="1">
         <v>-8.99</v>
       </c>
       <c r="AA21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K22" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="26">
     <dataValidation showInputMessage="1" showErrorMessage="1" promptTitle="ID da Loja" prompt="identificação da loja" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
